--- a/map_snow_loads.xlsx
+++ b/map_snow_loads.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="235">
   <si>
     <t>Таблица ветровых и снеговых нагрузок по субъектам и городам России</t>
   </si>
@@ -34,13 +34,703 @@
   </si>
   <si>
     <t>Ветровой район</t>
+  </si>
+  <si>
+    <t>Адыгея</t>
+  </si>
+  <si>
+    <t>Майкоп</t>
+  </si>
+  <si>
+    <t>Алтайский край</t>
+  </si>
+  <si>
+    <t>Барнаул</t>
+  </si>
+  <si>
+    <t>Бийск</t>
+  </si>
+  <si>
+    <t>Рубцовск</t>
+  </si>
+  <si>
+    <t>Амурская область</t>
+  </si>
+  <si>
+    <t>Благовещенск</t>
+  </si>
+  <si>
+    <t>Архангельская область</t>
+  </si>
+  <si>
+    <t>Архангельск</t>
+  </si>
+  <si>
+    <t>Северодвинск</t>
+  </si>
+  <si>
+    <t>Астраханская область</t>
+  </si>
+  <si>
+    <t>Астрахань</t>
+  </si>
+  <si>
+    <t>Башкортостан</t>
+  </si>
+  <si>
+    <t>Нефтекамск</t>
+  </si>
+  <si>
+    <t>Салават</t>
+  </si>
+  <si>
+    <t>Стерлитамак</t>
+  </si>
+  <si>
+    <t>Уфа</t>
+  </si>
+  <si>
+    <t>Белгородская область</t>
+  </si>
+  <si>
+    <t>Белгород</t>
+  </si>
+  <si>
+    <t>Старый Оскол</t>
+  </si>
+  <si>
+    <t>Брянская область</t>
+  </si>
+  <si>
+    <t>Брянск</t>
+  </si>
+  <si>
+    <t>Бурятия</t>
+  </si>
+  <si>
+    <t>Улан-Удэ</t>
+  </si>
+  <si>
+    <t>Владимирская область</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Ковров</t>
+  </si>
+  <si>
+    <t>Муром</t>
+  </si>
+  <si>
+    <t>Волгоградская область</t>
+  </si>
+  <si>
+    <t>Волгоград</t>
+  </si>
+  <si>
+    <t>Волжский</t>
+  </si>
+  <si>
+    <t>Камышин</t>
+  </si>
+  <si>
+    <t>Вологодская область</t>
+  </si>
+  <si>
+    <t>Вологда</t>
+  </si>
+  <si>
+    <t>Череповец</t>
+  </si>
+  <si>
+    <t>Воронежская область</t>
+  </si>
+  <si>
+    <t>Воронеж</t>
+  </si>
+  <si>
+    <t>Дагестан</t>
+  </si>
+  <si>
+    <t>Дербент</t>
+  </si>
+  <si>
+    <t>Махачкала</t>
+  </si>
+  <si>
+    <t>Хасавюрт</t>
+  </si>
+  <si>
+    <t>Забайкальский край</t>
+  </si>
+  <si>
+    <t>Чита</t>
+  </si>
+  <si>
+    <t>Ивановская область</t>
+  </si>
+  <si>
+    <t>Иваново</t>
+  </si>
+  <si>
+    <t>Иркутская область</t>
+  </si>
+  <si>
+    <t>Ангарск</t>
+  </si>
+  <si>
+    <t>Братск</t>
+  </si>
+  <si>
+    <t>Иркутск</t>
+  </si>
+  <si>
+    <t>Калининградская область</t>
+  </si>
+  <si>
+    <t>Калининград</t>
+  </si>
+  <si>
+    <t>Калмыкия</t>
+  </si>
+  <si>
+    <t>Элиста</t>
+  </si>
+  <si>
+    <t>Калужская область</t>
+  </si>
+  <si>
+    <t>Калуга</t>
+  </si>
+  <si>
+    <t>Обниск</t>
+  </si>
+  <si>
+    <t>Камчатский край</t>
+  </si>
+  <si>
+    <t>Петропавловск-Камчатский</t>
+  </si>
+  <si>
+    <t>Кемеровская область</t>
+  </si>
+  <si>
+    <t>Кемерово</t>
+  </si>
+  <si>
+    <t>Киселевск</t>
+  </si>
+  <si>
+    <t>Ленинск-Кузнецкий</t>
+  </si>
+  <si>
+    <t>Новокузнецк</t>
+  </si>
+  <si>
+    <t>Прокопьевск</t>
+  </si>
+  <si>
+    <t>Кировская область</t>
+  </si>
+  <si>
+    <t>Киров</t>
+  </si>
+  <si>
+    <t>Костромская область</t>
+  </si>
+  <si>
+    <t>Кострома</t>
+  </si>
+  <si>
+    <t>Краснодарский край</t>
+  </si>
+  <si>
+    <t>Краснодар</t>
+  </si>
+  <si>
+    <t>Новороссийск</t>
+  </si>
+  <si>
+    <t>Сочи</t>
+  </si>
+  <si>
+    <t>Красноярский край</t>
+  </si>
+  <si>
+    <t>Ачинск</t>
+  </si>
+  <si>
+    <t>Красноярск</t>
+  </si>
+  <si>
+    <t>Норильск</t>
+  </si>
+  <si>
+    <t>Курганская область</t>
+  </si>
+  <si>
+    <t>Курган</t>
+  </si>
+  <si>
+    <t>Курская область</t>
+  </si>
+  <si>
+    <t>Курск</t>
+  </si>
+  <si>
+    <t>Ленинградская область</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Липецкая область</t>
+  </si>
+  <si>
+    <t>Елец</t>
+  </si>
+  <si>
+    <t>Липецк</t>
+  </si>
+  <si>
+    <t>Магаданская область</t>
+  </si>
+  <si>
+    <t>Магадан</t>
+  </si>
+  <si>
+    <t>Марийская Республика</t>
+  </si>
+  <si>
+    <t>Йошкар-Ола</t>
+  </si>
+  <si>
+    <t>Мордовия</t>
+  </si>
+  <si>
+    <t>Саранск</t>
+  </si>
+  <si>
+    <t>Московская область</t>
+  </si>
+  <si>
+    <t>Балашиха</t>
+  </si>
+  <si>
+    <t>Железнодорожный</t>
+  </si>
+  <si>
+    <t>Жуковский</t>
+  </si>
+  <si>
+    <t>Коломна</t>
+  </si>
+  <si>
+    <t>Красногорск</t>
+  </si>
+  <si>
+    <t>Люберцы</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Мытищи</t>
+  </si>
+  <si>
+    <t>Ногинск</t>
+  </si>
+  <si>
+    <t>Одинцово</t>
+  </si>
+  <si>
+    <t>Орехово-Зуево</t>
+  </si>
+  <si>
+    <t>Подольск</t>
+  </si>
+  <si>
+    <t>Серпухов</t>
+  </si>
+  <si>
+    <t>Химки</t>
+  </si>
+  <si>
+    <t>Щелково</t>
+  </si>
+  <si>
+    <t>Электросталь</t>
+  </si>
+  <si>
+    <t>Мурманская область</t>
+  </si>
+  <si>
+    <t>Мурманск</t>
+  </si>
+  <si>
+    <t>Нижегородская область</t>
+  </si>
+  <si>
+    <t>Арзамас</t>
+  </si>
+  <si>
+    <t>Дзержинск</t>
+  </si>
+  <si>
+    <t>Нижний Новгород</t>
+  </si>
+  <si>
+    <t>Новгородская область</t>
+  </si>
+  <si>
+    <t>Великий Новгород</t>
+  </si>
+  <si>
+    <t>Новосибирская область</t>
+  </si>
+  <si>
+    <t>Новосибирск</t>
+  </si>
+  <si>
+    <t>Омская область</t>
+  </si>
+  <si>
+    <t>Омск</t>
+  </si>
+  <si>
+    <t>Оренбургская область</t>
+  </si>
+  <si>
+    <t>Оренбург</t>
+  </si>
+  <si>
+    <t>Орск</t>
+  </si>
+  <si>
+    <t>Орловская область</t>
+  </si>
+  <si>
+    <t>Орел</t>
+  </si>
+  <si>
+    <t>Пензенская область</t>
+  </si>
+  <si>
+    <t>Пенза</t>
+  </si>
+  <si>
+    <t>Пермский край</t>
+  </si>
+  <si>
+    <t>Пермь</t>
+  </si>
+  <si>
+    <t>Приморский край</t>
+  </si>
+  <si>
+    <t>Артем</t>
+  </si>
+  <si>
+    <t>Владивосток</t>
+  </si>
+  <si>
+    <t>Находка</t>
+  </si>
+  <si>
+    <t>Уссурийск</t>
+  </si>
+  <si>
+    <t>Псковская область</t>
+  </si>
+  <si>
+    <t>Великие Луки</t>
+  </si>
+  <si>
+    <t>Псков</t>
+  </si>
+  <si>
+    <t>Республика Карелия</t>
+  </si>
+  <si>
+    <t>Петрозаводск</t>
+  </si>
+  <si>
+    <t>Республика Коми</t>
+  </si>
+  <si>
+    <t>Сыктывкар</t>
+  </si>
+  <si>
+    <t>Ухта</t>
+  </si>
+  <si>
+    <t>Ростовская область</t>
+  </si>
+  <si>
+    <t>Батайск</t>
+  </si>
+  <si>
+    <t>Волгодонск</t>
+  </si>
+  <si>
+    <t>Новочеркасск</t>
+  </si>
+  <si>
+    <t>Новошахтинск</t>
+  </si>
+  <si>
+    <t>Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>Таганрог</t>
+  </si>
+  <si>
+    <t>Шахты</t>
+  </si>
+  <si>
+    <t>Рязанская область</t>
+  </si>
+  <si>
+    <t>Рязань</t>
+  </si>
+  <si>
+    <t>Самарская область</t>
+  </si>
+  <si>
+    <t>Новокуйбышевск</t>
+  </si>
+  <si>
+    <t>Самара</t>
+  </si>
+  <si>
+    <t>Сызрань</t>
+  </si>
+  <si>
+    <t>Тольятти</t>
+  </si>
+  <si>
+    <t>Саратовская область</t>
+  </si>
+  <si>
+    <t>Балаково</t>
+  </si>
+  <si>
+    <t>Саратов</t>
+  </si>
+  <si>
+    <t>Энгельс</t>
+  </si>
+  <si>
+    <t>Сахалинская область</t>
+  </si>
+  <si>
+    <t>Южно-Сахалинск</t>
+  </si>
+  <si>
+    <t>Свердловская область</t>
+  </si>
+  <si>
+    <t>Екатеринбург</t>
+  </si>
+  <si>
+    <t>Каменск-Уральский</t>
+  </si>
+  <si>
+    <t>Нижний Тагил</t>
+  </si>
+  <si>
+    <t>Первоуральск</t>
+  </si>
+  <si>
+    <t>Северная осетия</t>
+  </si>
+  <si>
+    <t>Владикавказ</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Смоленская область</t>
+  </si>
+  <si>
+    <t>Смоленск</t>
+  </si>
+  <si>
+    <t>Ставропольский край</t>
+  </si>
+  <si>
+    <t>Невинномысск</t>
+  </si>
+  <si>
+    <t>Ставрополь</t>
+  </si>
+  <si>
+    <t>Тамбовская область</t>
+  </si>
+  <si>
+    <t>Тамбов</t>
+  </si>
+  <si>
+    <t>Татарстан</t>
+  </si>
+  <si>
+    <t>Альметьевск</t>
+  </si>
+  <si>
+    <t>Казань</t>
+  </si>
+  <si>
+    <t>Набережные Челны</t>
+  </si>
+  <si>
+    <t>Нижнекамск</t>
+  </si>
+  <si>
+    <t>Тверская область</t>
+  </si>
+  <si>
+    <t>Тверь</t>
+  </si>
+  <si>
+    <t>Томская область</t>
+  </si>
+  <si>
+    <t>Томск</t>
+  </si>
+  <si>
+    <t>Тульская область</t>
+  </si>
+  <si>
+    <t>Новомосковск</t>
+  </si>
+  <si>
+    <t>Тула</t>
+  </si>
+  <si>
+    <t>Тыва</t>
+  </si>
+  <si>
+    <t>Кызыл</t>
+  </si>
+  <si>
+    <t>Тюменская область</t>
+  </si>
+  <si>
+    <t>Тобольск</t>
+  </si>
+  <si>
+    <t>Тюмень</t>
+  </si>
+  <si>
+    <t>Удмуртия</t>
+  </si>
+  <si>
+    <t>Ижевск</t>
+  </si>
+  <si>
+    <t>Ульяновская область</t>
+  </si>
+  <si>
+    <t>Димитровград</t>
+  </si>
+  <si>
+    <t>Ульяновск</t>
+  </si>
+  <si>
+    <t>Хабаровский край</t>
+  </si>
+  <si>
+    <t>Комсомольск-на-Амуре</t>
+  </si>
+  <si>
+    <t>Хабаровск</t>
+  </si>
+  <si>
+    <t>Хакасия</t>
+  </si>
+  <si>
+    <t>Абакан</t>
+  </si>
+  <si>
+    <t>Ханты-Мансийский АО</t>
+  </si>
+  <si>
+    <t>Нефтеюганск</t>
+  </si>
+  <si>
+    <t>Нижневартовск</t>
+  </si>
+  <si>
+    <t>Сургут</t>
+  </si>
+  <si>
+    <t>Челябинская область</t>
+  </si>
+  <si>
+    <t>Златоуст</t>
+  </si>
+  <si>
+    <t>Копейск</t>
+  </si>
+  <si>
+    <t>Магнитогорск</t>
+  </si>
+  <si>
+    <t>Миасс</t>
+  </si>
+  <si>
+    <t>Челябинск</t>
+  </si>
+  <si>
+    <t>Чеченская Республика</t>
+  </si>
+  <si>
+    <t>Грозный</t>
+  </si>
+  <si>
+    <t>Чувашия</t>
+  </si>
+  <si>
+    <t>Новочебоксарск</t>
+  </si>
+  <si>
+    <t>Чувашская Республика</t>
+  </si>
+  <si>
+    <t>Чебоксары</t>
+  </si>
+  <si>
+    <t>Якутия</t>
+  </si>
+  <si>
+    <t>Якутск</t>
+  </si>
+  <si>
+    <t>Ямало-Ненецкий АО</t>
+  </si>
+  <si>
+    <t>Новый Уренгой</t>
+  </si>
+  <si>
+    <t>Ноябрьск</t>
+  </si>
+  <si>
+    <t>Ярославская область</t>
+  </si>
+  <si>
+    <t>Рыбинск</t>
+  </si>
+  <si>
+    <t>Ярославль</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +777,12 @@
       <name val="Britannic Bold"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +807,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -124,6 +819,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -405,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,35 +1116,2202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" t="s">
+        <v>154</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" t="s">
+        <v>155</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>156</v>
+      </c>
+      <c r="B107" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>163</v>
+      </c>
+      <c r="B114" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>167</v>
+      </c>
+      <c r="B116" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>169</v>
+      </c>
+      <c r="B120" t="s">
+        <v>173</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>174</v>
+      </c>
+      <c r="B121" t="s">
+        <v>175</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>177</v>
+      </c>
+      <c r="B122" t="s">
+        <v>178</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>179</v>
+      </c>
+      <c r="B123" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>179</v>
+      </c>
+      <c r="B124" t="s">
+        <v>181</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>182</v>
+      </c>
+      <c r="B125" t="s">
+        <v>183</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>184</v>
+      </c>
+      <c r="B126" t="s">
+        <v>185</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>184</v>
+      </c>
+      <c r="B127" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>184</v>
+      </c>
+      <c r="B128" t="s">
+        <v>187</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>184</v>
+      </c>
+      <c r="B129" t="s">
+        <v>188</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>189</v>
+      </c>
+      <c r="B130" t="s">
+        <v>190</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" t="s">
+        <v>192</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>193</v>
+      </c>
+      <c r="B132" t="s">
+        <v>194</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>193</v>
+      </c>
+      <c r="B133" t="s">
+        <v>195</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>196</v>
+      </c>
+      <c r="B134" t="s">
+        <v>197</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>198</v>
+      </c>
+      <c r="B135" t="s">
+        <v>199</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>198</v>
+      </c>
+      <c r="B136" t="s">
+        <v>200</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>201</v>
+      </c>
+      <c r="B137" t="s">
+        <v>202</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>203</v>
+      </c>
+      <c r="B138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>203</v>
+      </c>
+      <c r="B139" t="s">
+        <v>205</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>206</v>
+      </c>
+      <c r="B140" t="s">
+        <v>207</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>206</v>
+      </c>
+      <c r="B141" t="s">
+        <v>208</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>209</v>
+      </c>
+      <c r="B142" t="s">
+        <v>210</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>211</v>
+      </c>
+      <c r="B143" t="s">
+        <v>212</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>211</v>
+      </c>
+      <c r="B144" t="s">
+        <v>213</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>211</v>
+      </c>
+      <c r="B145" t="s">
+        <v>214</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>215</v>
+      </c>
+      <c r="B146" t="s">
+        <v>216</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>215</v>
+      </c>
+      <c r="B147" t="s">
+        <v>217</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>215</v>
+      </c>
+      <c r="B148" t="s">
+        <v>218</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>215</v>
+      </c>
+      <c r="B149" t="s">
+        <v>219</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>215</v>
+      </c>
+      <c r="B150" t="s">
+        <v>220</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>221</v>
+      </c>
+      <c r="B151" t="s">
+        <v>222</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>223</v>
+      </c>
+      <c r="B152" t="s">
+        <v>224</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>225</v>
+      </c>
+      <c r="B153" t="s">
+        <v>226</v>
+      </c>
+      <c r="C153">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>227</v>
+      </c>
+      <c r="B154" t="s">
+        <v>228</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>229</v>
+      </c>
+      <c r="B155" t="s">
+        <v>230</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>229</v>
+      </c>
+      <c r="B156" t="s">
+        <v>231</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>232</v>
+      </c>
+      <c r="B157" t="s">
+        <v>233</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>232</v>
+      </c>
+      <c r="B158" t="s">
+        <v>234</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
